--- a/biology/Médecine/Visière_solidaire/Visière_solidaire.xlsx
+++ b/biology/Médecine/Visière_solidaire/Visière_solidaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Visi%C3%A8re_solidaire</t>
+          <t>Visière_solidaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Visière solidaire est un mouvement social français pour la production de visières dans le contexte de la pandémie de COVID-19. L'équipement est produit par des imprimantes 3D et livré bénévolement à des institutions de santé et pharmacies. Le mouvement regroupe surtout des makers, mais aussi d'autres volontaires, chargés par exemple de la coordination et la distribution des visières[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Visière solidaire est un mouvement social français pour la production de visières dans le contexte de la pandémie de COVID-19. L'équipement est produit par des imprimantes 3D et livré bénévolement à des institutions de santé et pharmacies. Le mouvement regroupe surtout des makers, mais aussi d'autres volontaires, chargés par exemple de la coordination et la distribution des visières.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Visi%C3%A8re_solidaire</t>
+          <t>Visière_solidaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Visière solidaire se forme lors d'une mobilisation de volontaires dans le cadre du manque de masques homologués en France dans le contexte de la pandémie de COVID-19[1]. Des laboratoires scientifiques se sont aussi convertis en local de production de visières pour soignants[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Visière solidaire se forme lors d'une mobilisation de volontaires dans le cadre du manque de masques homologués en France dans le contexte de la pandémie de COVID-19. Des laboratoires scientifiques se sont aussi convertis en local de production de visières pour soignants.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Visi%C3%A8re_solidaire</t>
+          <t>Visière_solidaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Précaution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les visières imprimées ne remplacent pas les masques. Ce sont une protection en plus pour les travailleurs de la santé. L'équipement ne répond encore à aucune norme ou certification précise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les visières imprimées ne remplacent pas les masques. Ce sont une protection en plus pour les travailleurs de la santé. L'équipement ne répond encore à aucune norme ou certification précise.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Visi%C3%A8re_solidaire</t>
+          <t>Visière_solidaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Visi%C3%A8re_solidaire</t>
+          <t>Visière_solidaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,10 +617,12 @@
           <t>Impact</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors d'un interview, Anthony Seddiki, l'un des fabricants responsables du mouvement, a dit que 100 000 visières avaient été distribuées jusqu'au 8 avril 2020[3].
-Visière solidaire est considérée comme « l’une des plus grosses chaînes de solidarité destinée à fabriquer du matériel de protection contre le Covid-19 »[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'un interview, Anthony Seddiki, l'un des fabricants responsables du mouvement, a dit que 100 000 visières avaient été distribuées jusqu'au 8 avril 2020.
+Visière solidaire est considérée comme « l’une des plus grosses chaînes de solidarité destinée à fabriquer du matériel de protection contre le Covid-19 ».
 </t>
         </is>
       </c>
